--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -4641,7 +4641,7 @@
         <v>P60 ist der Brief eines Mitglieds des Schulvorstands an den Herausgeber, in dem sie erzählen, was in dem Fall passiert ist.</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>Schulbibliotheken haben Jahrbücher.</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>Diese Geschichte wurde von einem Mann berichtet.</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>Der Leitfaden rät den Menschen nicht, den Kaffee mitten am Tag zuzubereiten.</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>Ich kam nicht gut mit Jason aus.</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>Sie bezogen sich auf eine Violine.</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>Einige Substanzen müssen aufgrund ihrer Umweltauswirkungen vom Markt genommen werden.</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>Die Kommission erwägt einen Vorschlag zur Windenergie.</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>Der Mann verachtet Deutschland.</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>Wasser wird benötigt.</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>Mark Cavendish hat sich aus der Tour de France zurückgezogen.</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>Nachdem Sie angegeben haben, warum Sie denken, dass sie eine gute Quelle für Ihre Geschichte ist, warten Sie bis nach dem Interview, um sie zu erpressen.</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>Die Royalisten tragen nur Gelb.</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>Denke an eine schöne Erinnerung, die nützlich sein kann, um einen Brief zu schreiben.</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>Der rechte Pfeil zeigte den richtigen Weg.</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>Einige Früchte sollten besser vermieden werden.</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>Tie Dye wird an seinem nächsten Geburtstag achtzehn.</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>Der neue Schüler musste herumgeführt werden.</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>Europäer sind Friedenswahrer in Bosnien.</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>Das Pferd muss ein zahmes Pferd sein.</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>Der Prozess kann verwendet werden, um DVDs zu rippen.</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>Der Inspektor hat es zertifiziert, war sich aber der Probleme bewusst.</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="325">
@@ -4949,7 +4949,7 @@
         <v>Suzy brauchte einen Haarschnitt.</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>Es war ein gebrauchtes Spielzeug.</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>Waffen sind teuer und die Polizei benötigt das Geld, das ihnen umgeleitet wird.</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>Maya hasste ihre Schule.</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>Die letzte Aussage in diesem Kontext ist eine sarkastische Bemerkung.</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>Randy trinkt nur 11% der Getränke, die er kauft.</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>Achte darauf, deine Hände zuerst mit einer antibakteriellen Seife zu waschen und sie gut mit viel Wasser abzuspülen.</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>Hellgate wurde in Amerika vor Thailand veröffentlicht.</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>Sein Büro hat seit vielen Jahren als Aufsichtsbehörde für die verschiedenen Datenschutzrichtlinien fungiert.</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>Sarah hat keinen Kohlsaft gekauft.</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>Dire Straits wollten nie in den Vereinigten Staaten populär sein.</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>Gesunde Menschen werden nie krank.</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>Ethan besuchte den Nachbarn Amerikas.</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>Die haushaltspolitischen Maßnahmen umfassen Kredite, die zurückgezahlt werden.</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>Tim braucht neue Tabletts.</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>Tim hat seine Verlobte vor der Hochzeit wegen des Junggesellenabschieds verlassen.</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>Waffen Gesetze sind entscheidend, aber nicht liebevoll zu Kindern.</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>Der Datenschutzbeauftragte hat sich für Aufsicht eingesetzt.</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>Steven hat lange geschwommen.</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>Der Tasmanische Gesetzgebende Rat möchte aus Hobart umziehen.</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>Sie unterstützen den Nordallianzvertrag.</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>Die Fütterung von neugeborenen Welpen erfordert viele Utensilien.</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>Parasailing war ein Traum, der für Lucy wahr wurde.</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>Onkel Sam nannte sein erstes Album "Onkel Sammy".</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>Der Kläger widerspricht, dass die Kommentare des Richters protokolliert werden.</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>Reba hat ihre Uhr an einen Räuber verloren.</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>Stelle eine Pfanne auf den Herd.</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>Er hat Filme wie "Hank und die Suche nach dem Glück", "Serendipity" und "Shall We Dance?" inszeniert.</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>Die Lösung basiert nicht auf einem aktiven Kampf gegen die kolumbianische Drogenmafia.</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>Ein sehr großer Stuhl wird benötigt, um einen Wassermelonen-Smoothie mit einem Bohrer zuzubereiten.</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>Josh vermisst sein Zuhause.</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>Der Präsident hat einen Krieg begonnen.</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>Mein Mann hatte recht, dass ich schlecht im Golf bin.</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>Alejandro Ghersi ist ein mexikanischer Produzent.</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>Sie sind um neun Uhr dreißig morgens gegangen.</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>Die Konservative Partei in Kanada möchte im Unterhaus über bezahlbaren Wohnraum diskutieren.</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>Cyanid wird nicht benötigt.</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>Sie flog über den Fluss.</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>Der Erzähler möchte wissen, ob Herr Landry alle Informationen erhalten hat.</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>Ich hoffe, dass die Ministerin für die Entwicklung der menschlichen Spezies und ihre Mitarbeiter wirklich zur Kenntnis nehmen, was ich gesagt habe.</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>Das Laufen des 100-Meter-Sprints erfordert wenig Ausdauertraining.</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>Alan Metter hat Kriegsfilme inszeniert.</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>Der Islamische Dschihad fordert die Freilassung seines Anführers und die Aufhebung des Embargos gegen den Iran.</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>Anna interagiert mit Menschen.</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>Der Baum ist umgefallen.</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>Das Arbeitsrecht ist im Parlament vorangekommen.</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>Kevin Vincent, 44, aus Arlington, Va., sagte, seine Frau kaufe Acetaminophen der Marke Aleve und er wollte mehr über das Problem herausfinden.</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>Die roten Hemden sind Unterstützer der ländlichen und armen Bevölkerung und unterstützen den Premierminister.</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>Randy kaufte etwas Wodka.</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>Die Bürger wollten keinen neuen Präsidenten.</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>Braun Strowman hat ein Problem mit Brock Lesnar.</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>Ethan aß italienisches Essen.</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>Ihr Datenplan wird von Ihrem Mobilfunkanbieter festgelegt.</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="378">
@@ -5705,7 +5705,7 @@
         <v>Rufus Wainwrights "I Don't Know What It Is" wurde nach seinem zweiten Album, aber vor dem 27. Juli 2004 veröffentlicht.</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>In den 1950er Jahren begann das FBI der Vereinigten Staaten, eine öffentliche Liste der Personen zu führen, die es als die zehn meistgesuchten Verbrecher betrachtete.</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>Der zweite Schritt, um ein guter Chef in einer bestimmten Rolle zu werden, ist ein ausgezeichnetes Verständnis des Jobs und dessen, was benötigt wird, um erfolgreich zu sein.</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>Ein anonymer Text offenbart deinen Namen nicht.</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>Bath, Maine und der Sagadahoc County wurden von der demokratischen Fraktionsführerin Mary Small vertreten.</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>Kates Tochter ist asozial.</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>Pamunuwa liegt nicht in der Ostprovinz.</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5803,7 +5803,7 @@
         <v>Welpen enthält drei Vorkommen des Buchstabens p.</v>
       </c>
       <c r="D386" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="387">
@@ -5817,7 +5817,7 @@
         <v>Sammy übte Baseball mit Fleiß.</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>Stevens Kindheits Hobby wurde zu einer Karriere.</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>Die Menschen in der Regierung beschuldigen sich gegenseitig und sind hasserfüllt.</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>What a Girl Wants erhielt eine Silberzertifizierung in Belgien.</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>Anorexia nervosa wird fälschlicherweise als durch Nahrungsrestriktion gekennzeichnet angesehen.</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>Tina Turner hat einen Song für einen Indiana-Jones-Film gemacht.</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>Wyatt Earp war ein Mensch.</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>Tina Turner hat einen Song für Golden Eye gemacht.</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>Demi Lovato ist eine Befürworterin von Snacks.</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>DJ Khaled änderte seinen Namen nach dem 11. September 2008.</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>Barbara Bush gründete die Barbara Bush Stiftung für Kinderliteracy.</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>Randall Flagg wurde in "The Stand" und "Der Dunkle Turm" vorgestellt.</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>What a Girl Wants erhielt eine Goldzertifizierung in den USA.</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>Megan Fox arbeitete mit Faith Ford.</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>The Dark Knight spielt in Gotham City.</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">
@@ -6027,7 +6027,7 @@
         <v>Fight Club mit Brad Pitt.</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>Jeder braucht einen besten Freund ist aus einem YouTube-Video.</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>Der Doktor reist allein.</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>Helen Hunt war in 5 Filmen, in denen Helen Hunt einen Burger aß.</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>Jeff Bezos ist der Gründer von Facebook.</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>Tina Turners Album Break Every Rule wurde mit Gold ausgezeichnet.</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>Doc Holliday hat nie eine Praxis in Atlanta eröffnet.</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>Psychologie ist eine Disziplin innerhalb der Akademia.</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>Narendra Modi ist ein indischer Politiker.</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>Doctor Who wurde von mehreren Darstellern gespielt.</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>Kaplan möchte seine Vision verwirklichen.</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>Ihm wurde ein Bericht vorgelegt, in dem das, was er wollte, jährlich dargestellt wurde.</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>Diese koscheren Gesetze haben es geschützten Tieren ermöglicht, zu gedeihen.</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="415">
@@ -6209,7 +6209,7 @@
         <v>Abbe Lowell plant, von Starrs Befragung Kapital zu schlagen.</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="416">
@@ -6223,7 +6223,7 @@
         <v>Die Presse muss umstrukturiert werden, um jegliches Lecken zu beseitigen.</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>Klayman möchte, dass andere glauben, er sei kohärent.</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>Die Welt wird mit guter Anleitung durch die Makroökonomie funktionieren.</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>Joyce kann das Stück, das sie sucht, nicht finden.</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>Der Autor hat die Frage absichtlich vage formuliert.</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>Die Frau hat keinen letzten Wunsch.</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>Trotz einiger großer Hoffnungen zu Beginn hat die Marke einen stetigen Rückgang erlebt.</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>Alle Basset Hounds haben einen guten Sinn.</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>Ich mag alle Mazda-Autos.</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>Sie müssen gehört werden.</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>Sie mussten den Namen des Mannes wissen.</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>Greenspans Aussage benötigte eine Neuformulierung.</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>Der Autor wollte, dass Reagan Kritik erhält.</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>Die Frau ist ledig.</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>Katz möchte verzweifelt im Washington Post veröffentlicht werden.</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>Microsoft ist ein mächtiger Akteur auf ihrem Markt, mit der Fähigkeit, Probleme zu neutralisieren.</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>Springer ist nicht beliebt.</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>Jeder sollte sich um seine eigenen Angelegenheiten kümmern, was ihr Liebesleben betrifft.</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>Inglis baute eine lange Strecke Autobahn.</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>Es gibt immer noch diejenigen, die Geschenke machen möchten.</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>Die Soldaten wollten ihr helfen.</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>McCain möchte die Steuern für alle erhöhen.</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>Die Protagonistin und ihre Brüder wachsen in Japan auf.</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>Der Bewährungshelfer hat sich immer an das Gesetz gehalten.</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>Jesse Ventura möchte nicht, dass Pat die Nominierung gewinnt.</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>Die neue Technologie bringt aktuelle Nachrichten in eine Zeitung.</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>Es ist eine kleine Menge im Vergleich zu dem, was benötigt wird.</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>Die Zunft der Kirkbuzzers braucht Geld von ihm.</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>Republikaner versuchen oft, ihren armen Wählern etwas zurückzugeben, wenn es ein Haushaltsdefizit gibt.</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>PointCast versucht, sein erstes Softwareprodukt als Unternehmen zu entwickeln.</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>Bettelheim konzentrierte sich auf die Bedeutung, ein Führer zu sein.</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>Kritiker, die heute verzweifelt versuchen, den Roman zu retten, wollten ihn vor 40 Jahren töten.</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>Pollocks Karriere war kurz.</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>Die Frau erfüllt das Bedürfnis des Mannes nach Geschwindigkeit.</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>Die Kürzung von Sozialzahlungssystemen erzeugt Druck auf nationale Führungskräfte.</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>Europäische Regierungen erheben hohe Steuern auf Rückrufdienste.</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">
@@ -6727,7 +6727,7 @@
         <v>Die Bundesregierung weiß, dass Katastrophengelder sehr begehrt sind.</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>Ich bin vollkommen zufrieden mit dem, wie es läuft.</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>Einige wollen auf Sonderermittler verzichten.</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>Ich möchte Gabriels Feuer finden; es ist mein Favorit.</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>Die LSC hatte Zweifel an der Wirksamkeit der vorgeschlagenen Richtlinien.</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>Tommy wollte es wirklich wissen.</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>Diese Rezension wird versuchen, den Grund für das Eingreifen zu widerlegen.</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>Es ist unmöglich zu wissen, ob die Gesetzgebung wirksam ist.</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>Der Anblick dessen, was die Dosen enthielten, ließ ihn erbrechen.</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>Sie war nervös, obwohl sie es nicht sein wollte.</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="462">
@@ -6881,7 +6881,7 @@
         <v>Die Anforderungen an Schulung und Aufsicht steigen mit mehreren Standorten.</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>Während er seine Umgebung im Allgemeinen mochte, wollte er bald gehen, um den Herbstregen zu vermeiden.</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>Spock versuchte, seine Frau zu betrügen.</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>Der Preis musste gedeckelt werden.</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>Mein Mann ist glücklich, mir die Blumenpflege zu überlassen, während er den Rasen genau so pflegt, wie er es mag.</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>Sie haben unser Familientreffen wirklich durcheinandergebracht.</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>Ich wollte ein Haus mit einer Terrasse kaufen, aber ich habe mich entschieden, eines ohne zu nehmen.</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>Die Partei möchte, dass er so schnell wie möglich geht.</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>Ich entschied, dass ich nichts essen musste.</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>Vrenna möchte wissen, ob der Kal geht.</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>Es gab keine Agenten, die bereit waren, für Clinton zu lügen.</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>Wir wollten Lewinsky überweisen.</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>Funktionale und Anwaltbedürfnisse sind immer aufeinander abgestimmt.</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>Drew wollte Shannon nicht überfahren.</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>Sie machen den Prozess der Familienzusammenführung wirklich einfach.</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>Ich hoffe, ich sehe es eines Tages.</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>Während dieser Zeit wollten die Bushes nichts mit mir zu tun haben.</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>Wir müssen uns an einige Ideen erinnern.</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>Der Astronom war von der Frage baffiert, warum Menschen Kohle und Öl wollen, obwohl sie im Weltraum waren, und fragte nach den Gründen für die Verwirrung.</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>Die GAO und die IGs müssen solide Beziehungen haben.</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>Danke für deine Hartnäckigkeit, mich zu erinnern, wann immer ich versucht habe, emotional zu sein.</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>Wir wollen Kinder.</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>Wir hatten den Wunsch, ein wenig Hoffnung durch das HRC-Logo zu schaffen.</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>Ich habe meine Einfahrt im folgenden Frühling komplett gepflastert.</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>Jackson braucht Hilfe.</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>Die zweite Phase wurde Ende des 17. Jahrhunderts geplant.</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>Ich musste gehen.</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>Der Zeitschriftenartikel ist, wo ich es gelesen habe.</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>Gilder braucht keine Ausrede, um technische Texte zu schreiben.</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>Gute Führungskräfte können einer Organisation helfen, ihren Widerstand gegen Veränderungen zu überwinden.</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>Es muss ständig aufgezogen werden und ist auf fünf Minuten genau.</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>Sie kannten die Macht, informiert zu sein.</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>Es war schwierig zu finden, wo sein Büro ist.</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7343,7 +7343,7 @@
         <v>Ich glaube, ich möchte er sein.</v>
       </c>
       <c r="D496" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="497">
@@ -7357,7 +7357,7 @@
         <v>Er braucht die Zeit.</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>Die Bewohner wollten ihre Post um 8:00 Uhr morgens abholen.</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>Weil sie Hindus waren, wurde Nehrus Kongresspartei von Sozialisten geleitet.</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>Cynthia war allergisch gegen das Gras und wollte es nicht berühren.</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>Das Bombardieren von Ländern senkt deine Zustimmungsrate.</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>Fridlund-Hume warnte davor, zu sehr zu versuchen, recht zu erscheinen.</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>In der Sowjetunion gibt es viele verschiedene Kulturen, die versuchen, in einem Land zu funktionieren.</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>Leider kann ich nicht tragen, was ich möchte, während ich von zu Hause aus arbeite.</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>Ich möchte, dass du frei bist, die Entscheidungen zu treffen, die du wünschst.</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>Du musst jedoch die wichtigsten gepflasterten Straßen im Auge behalten.</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>Ich weiß, dass Panama Drogen sehr ernst nimmt.</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>Das enthaltene Quiz kann zur Diagnose von medizinischen Problemen verwendet werden.</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>möchte an der Aufregung teilhaben</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>Der Vorsitzende möchte die Stärke der Mission aufrechterhalten.</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>Berman segelt über den Ozean auf einer spirituellen Reise.</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>Ich möchte ihr sagen, dass sie das nicht sagen soll.</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>Ich werde Emily dazu zwingen, so zu sein, wie ich es will.</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>Pro-Choice-Befürworter in den 70er Jahren wollten sich nicht mit der aufkommenden feministischen Bewegung identifizieren.</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>Es ist klar, dass er keine Methode braucht, um erfolgreich zu sein.</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>Sie benötigen ein Fernglas, um einen guten Blick auf die dritte Reihe von Bögen zu werfen.</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>Wünschst du dir nur, dass er dieses Verbrechen begangen hat?</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>"Ich möchte kein Essen an diejenigen verkaufen, die nicht in der Lage sind, seine wahre, angenehme Natur zu schätzen," antwortete er.</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>Tokios Wiederaufbau war schlecht geplant.</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>Sie wollten, dass ich die Rosen an ihrem Eingang pflanze.</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>Die erste Webseitenfunktion leitet Sie zur Startseite weiter.</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>Ryerson ist der Meinung, dass strengere Gesetze zum Schutz der Umwelt erforderlich sind.</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>Er wollte, dass Jugendliche in Armut Maßnahmen ergreifen, um zu verhindern, dass sie Kinder bekommen.</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>Ich bin mitten in den Angeboten, weil ich mein Haus streichen lassen möchte.</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>Sie benötigten ein zusätzliches Einkommen.</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>Ich mache, was ich will.</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>Ich weiß, dass dein Name Antonio ist, du musst dich nicht wiederholen.</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>Donovan Olson wurde im vergangenen Dezember zum Vorsitzenden des Bezirksaufsichtsrats ernannt.</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>Ich möchte den echten Mr. Brown sehen.</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>Die Temperaturen werden sinken.</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="531">
@@ -7833,7 +7833,7 @@
         <v>Fieldstone möchte eine praktikable Lösung für das Zwangsvollstreckungsproblem finden.</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>Wir mussten mehrere Zimmer im Haus neu dekorieren.</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>Ich habe mehr Erfahrung mit PCs, also habe ich den Großteil der Arbeit übernommen.</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>Der Ehemann gab ihr die Schlüssel, um die Orshe zu parken.</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>Ich kann diese Aufgaben bis nach dem Unterricht aufschieben.</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="536">
@@ -7917,7 +7917,7 @@
         <v>Das Maxim Hotel muss renoviert werden.</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>OPEC ist besorgt über die Wirtschaft.</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>Der Senat wird bei diesem Gesetz niemals in Bewegung kommen.</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>Das Ziel der Verwaltung ist es, neue Produkte und Dienstleistungen zu schaffen, die den Bedürfnissen der Verbraucher entsprechen.</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>Sie möchten die Bedeutung des Krieges gegen den Terror verdeutlichen.</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>Ich möchte nicht einmal eine Trauzeugin.</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="543">
@@ -8001,7 +8001,7 @@
         <v>Die wirtschaftlichen Folgen dieses Krieges sind enorm.</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>Sie wollte nicht nach Amerika gehen, aber sie hatte Angst, in ihrem Land zu bleiben.</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>Du versuchst herauszufinden, was du tun sollst.</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>Der Preis der Freiheit ist die Freiheit, das zu tun, was man will.</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>Du kannst alles tun, was du willst.</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>Er wollte die Informationen erhalten.</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>Es ist eine gute Idee, den Schulrat um Hilfe zu bitten.</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>Das Gespräch drehte sich um das Thema des Interesses des Reporters.</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>Der Roman handelt von einer Frau, die in ihrem eigenen Zuhause nicht gewünscht ist.</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>Die Schule baut ein neues Auditorium.</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>Das Opfer möchte das Verbrechen nicht melden.</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>Die Regierung möchte ein System für die Gesundheitsversorgung schaffen.</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>Wissen wir, wie wir unseren Kindern Medikamente geben?</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>Sie hatten die Möglichkeit, alles zu tun, was sie wollten.</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>Anwälte haben eine großartige Gelegenheit, den Armen zu helfen.</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>Das Bundesgesetz über die Energiepolitik von 1992 wurde 2005 aufgehoben.</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>Du bist hier.</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>Einzelhandelsdienstleistungen benötigen Verträge.</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>Nolte sagte, er habe nie Anwalt werden wollen.</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>Der Staat steht zum Verkauf.</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>Wissenschaftler möchten wissen, was Entscheidungsträger tun.</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>Stakeholder können in den Planungsprozess einbezogen werden.</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>Die Veränderung ihrer Stimmung war auf ihre Freunde zurückzuführen.</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>Es gibt eine erhebliche Meinungsverschiedenheit zwischen den politischen Parteien über die Notwendigkeit eines Einzahler-Gesundheitssystems.</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>Du hast ein echtes Problem.</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>Spiele an einem Rad, das 0 und 00 darauf hat.</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>Ich kann dir nicht sagen, was ich gemacht habe.</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>Die Frau weiß nicht, was sie will.</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>Er will immer recht haben.</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>Das neue Programm wird benötigt, um das Problem zu lösen.</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>Möchtest du bleiben?</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>Polizeigewalt ist notwendig, um die Gesetze durchzusetzen.</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>Die Regierung hat nicht getan, was das Volk wollte.</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>Das Gebiet wird Menschen anziehen, die dorthin kommen möchten.</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>Er versucht, reich zu werden.</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>Er würde keinen Krieg anfangen.</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>Dr. Livingston mochte ihn nicht.</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8519,7 +8519,7 @@
         <v>Es besteht Bedarf an einer neuen Initiative.</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>Du musst die Namen der Spieler kennen.</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>Die Menschen müssen eine gute Ausbildung erhalten.</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>Wir müssen die Kosten der anderen Komponenten des Systems berücksichtigen.</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>Er hat sich entschieden, was er tun möchte.</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>Die Regierung muss etwas gegen die Wirtschaft tun.</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>Er ist eine sehr moralische Person.</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>Ich möchte die Verantwortung für die Abläufe übernehmen.</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>Die US-Regierung möchte den freien Fluss von Informationen ermöglichen.</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>Sie benötigen keine Genehmigung, um auf den See zu gehen.</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>Es besteht die Notwendigkeit einer umfassenden Überprüfung der Literatur zu diesem Thema.</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>Ich will nicht gehen.</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>Die Diversifizierung der Energieversorgung ist wichtig für die Energiesicherheit.</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>Miss Paget wollte sagen, dass John Glück hatte.</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>Der Leiter des lokalen Schulvorstands ist in der Lage, das zu tun, was er tun möchte.</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>Es muss eine Diskussion stattfinden.</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>Die Dothraki wollen die Stadt Qarth erobern.</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>Es muss etwas dagegen unternommen werden.</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>Das neue Team ist engagiert, was der Trainer zu erreichen versucht.</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>Ich war offener mit ihr, als ich nicht so nervös war.</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>Veränderung ist in der Organisation notwendig.</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>Der Test ist nicht zuverlässig.</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -8827,7 +8827,7 @@
         <v>wo mehr französische Kanadier aus dem Murray-Fischhaus krochen</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>Öffentliches Küssen erfordert die Zustimmung einer Elternfigur.</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>Andrea von Habsburg ist das älteste Kind in ihrer Familie.</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>Der Nationalpark Trust hat Land in über 20 hochpriorisierten Gebieten zum Verkauf angeboten.</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>Terrarien müssen aus Kunststoff oder Glas hergestellt werden.</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>Das Material, das zur Verhinderung von Erosion an einem Flussufer verwendet wird, ist nicht biologisch abbaubar.</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>Donald Conroy starb im Alter von 67 Jahren.</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>Neben der Zusammenstellung von Musik mit der amerikanischen Alternative-Rock-Band 10,000 Maniacs sollte Mary Ramsey auch als Mitglied des Folk-Rock-Duos John &amp; Mary betrachtet werden.</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8939,7 +8939,7 @@
         <v>Dieser Abschnitt ist abgeschlossen.</v>
       </c>
       <c r="D610" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="611">
@@ -8953,7 +8953,7 @@
         <v>Ein Valdez erfordert, dass Sie aufrecht sitzen.</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>Der Sprecher ist in seiner zweiten Amtszeit.</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613">
@@ -8981,7 +8981,7 @@
         <v>Janet ist ein Onkel.</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8995,7 +8995,7 @@
         <v>Der Gouverneur des Bundesstaates Abia ist auch der Präsident.</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9009,7 +9009,7 @@
         <v>Walter Murray sagte, es sei ein törichter Angriff gewesen.</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="616">
@@ -9023,7 +9023,7 @@
         <v>Unbegrenzte Seefrachtversicherung ist nicht für Privatpersonen verfügbar, sondern nur für Handelsschiffe.</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9037,7 +9037,7 @@
         <v>Constance zeigte kein Interesse an dem Gespräch oder dem Thema.</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9051,7 +9051,7 @@
         <v>IBS-Patienten sollten nur Wasser trinken.</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="619">
@@ -9065,7 +9065,7 @@
         <v>New Day ist ein Buch des jamaikanischen Autors V. S. Reid aus dem Jahr 1949. Es ist über 46 Jahre alt.</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>Die Abstimmung über den Vertrag ist zwischen 25 und 30 Jahre alt.</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="621">
@@ -9093,7 +9093,7 @@
         <v>Das Album beginnt mit einem D.</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9107,7 +9107,7 @@
         <v>Ed Eagan spielte im aktiven Kader.</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="623">
@@ -9121,7 +9121,7 @@
         <v>Canelo Álvarez gegen Julio César Chávez Jr. fand nach 2016 statt.</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9135,7 +9135,7 @@
         <v>Das Haarprodukt ist nicht billig.</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="625">
@@ -9149,7 +9149,7 @@
         <v>Pearse starb an natürlichen Ursachen.</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9163,7 +9163,7 @@
         <v>Hautkrebs steht im Zusammenhang mit der Ozonschicht.</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="627">
@@ -9177,7 +9177,7 @@
         <v>Dermal-Filler-Infektionen können von Entzündungen begleitet sein.</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9191,7 +9191,7 @@
         <v>Big Data war ein Projekt, das von Joywave erstellt wurde.</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9205,7 +9205,7 @@
         <v>Um MSK-Schmerzen chirurgisch zu behandeln, ruhen Sie zunächst die Muskeln.</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="630">
@@ -9219,7 +9219,7 @@
         <v>Die Chirurgie enthält ein g.</v>
       </c>
       <c r="D630" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="631">
@@ -9233,7 +9233,7 @@
         <v>Die Operation wird von einem Chirurgen durchgeführt.</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9247,7 +9247,7 @@
         <v>Die meisten Menschen haben von dem Lied Oh My nicht gehört.</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="633">
@@ -9261,7 +9261,7 @@
         <v>Richter Breyer ist ein Verleger.</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="634">
@@ -9275,7 +9275,7 @@
         <v>Gemeinde und Comune bedeuten dasselbe.</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="635">
@@ -9289,7 +9289,7 @@
         <v>Kate Moss hat ihre eigene Haarproduktlinie auf den Markt gebracht.</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="636">
@@ -9303,7 +9303,7 @@
         <v>Die Serie handelte von einem pensionierten Jazzmusiker namens Jackie Evans.</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>William Thomas Harris war ein kanadischer Pitcher, der für Duguayville linkshändig schlug.</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="638">
@@ -9331,7 +9331,7 @@
         <v>Streusel sollten auf den Kuchen gegeben werden.</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="639">
@@ -9345,7 +9345,7 @@
         <v>Der Blue Ridge Parkway befindet sich in North Carolina und Virginia.</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9359,7 +9359,7 @@
         <v>Das Gent Bestattungsinstitut ist verantwortlich für Johns Tod.</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="641">
@@ -9373,7 +9373,7 @@
         <v>Der Streik wird zu Lieferverzögerungen führen.</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>Das Unterkomitee wird im Frühjahr 1999 vier Reisen unternehmen.</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="643">
@@ -9401,7 +9401,7 @@
         <v>Multipliziere die Nenner.</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="644">
@@ -9415,7 +9415,7 @@
         <v>Jemand wird eine Geschichte über das Leben von Donald Rickles machen.</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9429,7 +9429,7 @@
         <v>Adelphia ist nicht der neuntgrößte Kabelanbieter in den Vereinigten Staaten mit fast 5 Millionen Abonnenten.</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9443,7 +9443,7 @@
         <v>Addiere die Zähler.</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9457,7 +9457,7 @@
         <v>Ilse von Glatz war im wirklichen Leben eine Anwältin.</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="648">
@@ -9471,7 +9471,7 @@
         <v>Das McGillis-Urteil hat ihren Ruf beschädigt.</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="649">
@@ -9485,7 +9485,7 @@
         <v>Für das Schmoren sollten Sie Römersalat verwenden.</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">
@@ -9499,7 +9499,7 @@
         <v>Dani hat jemandem geholfen, anders zu wählen, indem sie bei der Suizidpräventions-Hotline freiwillig gearbeitet hat.</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="651">
@@ -9513,7 +9513,7 @@
         <v>Die College-Football-All-Star-Spieler spielen im East-West Shrine Game.</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9527,7 +9527,7 @@
         <v>Thomas Ryan war 52 Jahre alt im Jahr 2008.</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9541,7 +9541,7 @@
         <v>Dani wusste, wie schwer es sein konnte.</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="654">
@@ -9555,7 +9555,7 @@
         <v>Die Behörden kamen nicht zu dem Schluss, dass es sich um einen Mord handelte.</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="655">
@@ -9569,7 +9569,7 @@
         <v>Henry starb 7 Jahre nach der Erfindung der Maschine.</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9583,7 +9583,7 @@
         <v>Selma Diamond starb im Alter von 60 Jahren.</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9597,7 +9597,7 @@
         <v>Meine Heimatprovinz ist Sasquatch.</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="658">
@@ -9611,7 +9611,7 @@
         <v>Russland hört Amerika zu.</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9625,7 +9625,7 @@
         <v>Steven Chealander arbeitet für das National Transportation Safety Board.</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9639,7 +9639,7 @@
         <v>Das All-Star-Spiel wird nach der Nachsaison des College-Footballs ausgetragen.</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="661">
@@ -9653,7 +9653,7 @@
         <v>Das Bildungssystem ist tiefgreifend fehlerhaft und kein Kind sollte zurückgelassen werden.</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="662">
@@ -9667,7 +9667,7 @@
         <v>Die Babyboomer sind schuld an den explodierenden Immobilienpreisen.</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="663">
@@ -9681,7 +9681,7 @@
         <v>Hank hat vor zwei Tagen eine Füllung bekommen.</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="664">
@@ -9695,7 +9695,7 @@
         <v>Das Tampa-Team wählte Erickson in der 4. Runde des Auswahlverfahrens von 1991.</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9709,7 +9709,7 @@
         <v>Witta, der Sohn von Wecta, hört gerne die Laute.</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9723,7 +9723,7 @@
         <v>Der Rohrbruch der Wasserleitung hätte vermieden werden können.</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9737,7 +9737,7 @@
         <v>Alle fünf Freundinnen sind weiblich.</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="668">
@@ -9751,7 +9751,7 @@
         <v>Kota Ramakrishna Karanth wurde nach April geboren.</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9765,7 +9765,7 @@
         <v>Mein Kollege erwähnte auch, dass wir einige der vorgeschlagenen Änderungen akzeptieren könnten, die grenzwertig gut waren.</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="670">
@@ -9779,7 +9779,7 @@
         <v>Der Blue Ridge Parkway wurde an private Parteien verkauft.</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="671">
@@ -9793,7 +9793,7 @@
         <v>Der Sprecher kennt die Farbe von Saras Augen.</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9807,7 +9807,7 @@
         <v>Private Parteien sind daran interessiert, Land vom National Park Trust zu kaufen.</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9821,7 +9821,7 @@
         <v>Manson wird kein 74. Spiel spielen.</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9835,7 +9835,7 @@
         <v>ABC lief Lost für mindestens 6 Staffeln.</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9849,7 +9849,7 @@
         <v>Triggerlebensmittel sind wichtig, um sich bewusst zu sein und zu vermeiden, sowohl bei IBS als auch bei GERD, da es sich um dieselben Bedingungen handelt.</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9863,7 +9863,7 @@
         <v>Ira Heidens erste Filmrolle war 1987.</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9877,7 +9877,7 @@
         <v>Immobilienmakler in Florida dürfen sich nicht unrechtmäßig verhalten, können jedoch ineffektiv sein, wenn sie ihre Kunden vertreten.</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="678">
@@ -9891,7 +9891,7 @@
         <v>Der wissenschaftliche Beirat wird geprüft.</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="679">
@@ -9905,7 +9905,7 @@
         <v>Würmer werden durch Hundekot infiziert.</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="680">
@@ -9919,7 +9919,7 @@
         <v>Rahul Gandhi mag Narendra Modi wirklich.</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9933,7 +9933,7 @@
         <v>Das Cooper–Frost–Austin-Haus bietet Anfang Mai private Führungen an.</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="682">
@@ -9947,7 +9947,7 @@
         <v>Sie kam am Vormittag an.</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="683">
@@ -9961,7 +9961,7 @@
         <v>Die Axis of Perdition sind eine koreanische Popgruppe.</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9975,7 +9975,7 @@
         <v>Erzbischöfe sollten wie jedes andere Mitglied der Kirche behandelt werden.</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -9989,7 +9989,7 @@
         <v>Ratatouille könnte im Auto gespielt werden.</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="686">
@@ -10003,7 +10003,7 @@
         <v>Sie hatten Angst, dass alle Kinder krank sein würden, als sie zurückkamen.</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10017,7 +10017,7 @@
         <v>Ein Gedicht muss Reime haben.</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10031,7 +10031,7 @@
         <v>Ethan hätte die Kräuter im selben Garten anbauen können.</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10045,7 +10045,7 @@
         <v>Die Associated Press hat diese Ankündigung verfasst.</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10059,7 +10059,7 @@
         <v>Orson Welles war ein Produzent.</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10073,7 +10073,7 @@
         <v>Joey Graceffa ist ein Computeringenieur.</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10087,7 +10087,7 @@
         <v>Radiohead hat drei Alben veröffentlicht.</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10101,7 +10101,7 @@
         <v>Venom wird normalerweise mit Spiderman in Verbindung gebracht.</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10115,7 +10115,7 @@
         <v>Marilyn Burns war eine Fechterin.</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="695">
@@ -10129,7 +10129,7 @@
         <v>Jim Henson war ein Sänger.</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="696">
@@ -10143,7 +10143,7 @@
         <v>Karan Johar ist ein Präsident.</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10157,7 +10157,7 @@
         <v>Orson Welles war ein Schauspieler.</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10171,7 +10171,7 @@
         <v>Clint Eastwood macht Musik.</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10185,7 +10185,7 @@
         <v>Königin Victoria war Königin eines Landes.</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10199,7 +10199,7 @@
         <v>Warm Leatherette ist von einer Frau.</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10213,7 +10213,7 @@
         <v>X-Men: Zukunft ist Vergangenheit kam nach 2010 heraus.</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="702">
@@ -10227,7 +10227,7 @@
         <v>Jordan Knight ist ein Filmschauspieler.</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10241,7 +10241,7 @@
         <v>Minnesota ist in Frankreich.</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10255,7 +10255,7 @@
         <v>Huntington-Krankheit ist eine Erkrankung, die vererbt werden kann.</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10269,7 +10269,7 @@
         <v>Sue Sylvester wird ausschließlich von einem männlichen Schauspieler dargestellt.</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10283,7 +10283,7 @@
         <v>Joan Crawford begann ihre Karriere als Schauspielerin.</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10297,7 +10297,7 @@
         <v>Leonardo da Vinci datet einen der größten Maler aller Zeiten.</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="708">
@@ -10311,7 +10311,7 @@
         <v>Fred Trump war im Dezember 1918 dreizehn Jahre alt.</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="709">
@@ -10325,7 +10325,7 @@
         <v>Sofia Coppola ist ein Schaumwein.</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10339,7 +10339,7 @@
         <v>X-Men (Film) hat eine Besetzung, die einen amerikanischen Schauspieler und Sänger namens Ian McKellen umfasst.</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10353,7 +10353,7 @@
         <v>Die erfolgreichste Periode von Newcastle United F.C. endete im Mai 1910.</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10367,7 +10367,7 @@
         <v>Leonardo da Vinci studierte Anatomie.</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10381,7 +10381,7 @@
         <v>Joey Graceffa stammt aus einer Republik, die aus einer Föderation besteht und auf einer Verfassung basiert.</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10395,7 +10395,7 @@
         <v>Glee ist eine Horror-Komödie.</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10409,7 +10409,7 @@
         <v>Der Regisseur der Pilotfolge von The Blacklist wurde während der Kennedy-Administration geboren.</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="716">
@@ -10423,7 +10423,7 @@
         <v>Roman Reigns ist ein Gärtner.</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10437,7 +10437,7 @@
         <v>Ted Kennedy ist ein Senator der Vereinigten Staaten.</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="718">
@@ -10451,7 +10451,7 @@
         <v>Supernatural ist eine Serie.</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10465,7 +10465,7 @@
         <v>Der Zwölfte Doktor ist in einer britischen Fernsehsendung.</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10479,7 +10479,7 @@
         <v>Jack Paar starb an einem Datum im 21. Jahrhundert.</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10493,7 +10493,7 @@
         <v>Planet der Affen Drehsequenzen in und um die Freiheitsstatue.</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10507,7 +10507,7 @@
         <v>One More Light wurde über CBS veröffentlicht.</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10521,7 +10521,7 @@
         <v>Wentworth ist eine einzelne Episode im Fernsehen.</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10535,7 +10535,7 @@
         <v>Robert Browning war ein herausragender Dichter der Ära des Russischen Kaiserreichs.</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="725">
@@ -10549,7 +10549,7 @@
         <v>Audrey Horne wurde in Twin Peaks: The Return eingeführt.</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="726">
@@ -10563,7 +10563,7 @@
         <v>Der Hauptcharakter von Avatar: Der Herr der Elemente war Aang.</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10577,7 +10577,7 @@
         <v>Evan Goldberg ist ein deutscher Regisseur.</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10591,7 +10591,7 @@
         <v>Cindy McCain ist Amerikanerin.</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10605,7 +10605,7 @@
         <v>Coldplay ist eine britische Band.</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10619,7 +10619,7 @@
         <v>Tim Allen spielte in einer amerikanischen Show.</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10633,7 +10633,7 @@
         <v>Tony Blair war der Vorsitzende der Konservativen Partei.</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="732">
@@ -10647,7 +10647,7 @@
         <v>Heather Watson ist eine Meisterin.</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10661,7 +10661,7 @@
         <v>John McCain ist bekannt für seine Bemühungen, die diplomatischen Beziehungen zu Russland wiederherzustellen.</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="734">
@@ -10675,7 +10675,7 @@
         <v>Wladimir Putin war der Vorsitzende einer Regierung.</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="735">
@@ -10689,7 +10689,7 @@
         <v>Der Gast hat amerikanische Filmschauspieler.</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10703,7 +10703,7 @@
         <v>Timothy Olyphant war ein Tier.</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10717,7 +10717,7 @@
         <v>Frank Sinatras zweiter Vorname war Sam.</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10731,7 +10731,7 @@
         <v>Sage Stallone war ein Vater.</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="739">
@@ -10745,7 +10745,7 @@
         <v>Mao Zedong war Russe.</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10759,7 +10759,7 @@
         <v>Lee Harvey Oswald ermordete den 35. Präsidenten der Vereinigten Staaten.</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="741">
@@ -10773,7 +10773,7 @@
         <v>Gabourey Sidibe ist Bürgerin der Vereinigten Staaten.</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10787,7 +10787,7 @@
         <v>Glee war ein Film.</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10801,7 +10801,7 @@
         <v>Tony Blair ist ein Schauspieler.</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10815,7 +10815,7 @@
         <v>Anderson Cooper ist eine Person.</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10829,7 +10829,7 @@
         <v>Heather Watson ist eine Mutter.</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10843,7 +10843,7 @@
         <v>George Clooney ist ein Cartoonist.</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10857,7 +10857,7 @@
         <v>Avril Lavigne ist eine Musikerin.</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10871,7 +10871,7 @@
         <v>Emilio Estevez wurde in einer Krippe geboren.</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10885,7 +10885,7 @@
         <v>Miranda Kerr war ein kanadisches Victoria's Secret Model.</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="750">
@@ -10899,7 +10899,7 @@
         <v>Hulk ist eine Schöpfung.</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10913,7 +10913,7 @@
         <v>Monica Seles spielte Tennis.</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">
@@ -10927,7 +10927,7 @@
         <v>Penny Dreadful begann im 21. Jahrhundert.</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10941,7 +10941,7 @@
         <v>Doug Jones ist in der Filmbranche beschäftigt.</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10955,7 +10955,7 @@
         <v>Warm Leatherette ist von einem in Jamaika geborenen Sänger und wurde 1980 veröffentlicht.</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="755">
@@ -10969,7 +10969,7 @@
         <v>Glee war eine Fernsehserie.</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10983,7 +10983,7 @@
         <v>Estella Warren ist ein Zwilling.</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="757">
@@ -10997,7 +10997,7 @@
         <v>Desperate Housewives ist eine Fernsehserie.</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11011,7 +11011,7 @@
         <v>Eminem war ein Zwilling.</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="759">
@@ -11025,7 +11025,7 @@
         <v>Thomas DeSimone verschwand in Haiti.</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11039,7 +11039,7 @@
         <v>William R. Tolbert Jr. wurde getötet.</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11053,7 +11053,7 @@
         <v>Miranda Cosgrove ist Rennfahrerin.</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11067,7 +11067,7 @@
         <v>Wynonna Judd ist in Wasser-Aerobic aktiv.</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11081,7 +11081,7 @@
         <v>Tré Cool ist der Schlagzeuger von Green Day.</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11095,7 +11095,7 @@
         <v>David Schwimmer beendete seine Schauspielerei in Friends am 8. Oktober 2004.</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="765">
@@ -11109,7 +11109,7 @@
         <v>Gennady Golovkin ist ein Fechter.</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11123,7 +11123,7 @@
         <v>Dennis Hopper war eine Person.</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11137,7 +11137,7 @@
         <v>Sage Stallone wurde in China geboren.</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11151,7 +11151,7 @@
         <v>Laurence Olivier war in Amerika.</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="769">
@@ -11165,7 +11165,7 @@
         <v>Gennady Golovkin ist ein Tintenfisch.</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11179,7 +11179,7 @@
         <v>Novak Djokovic ist ein Athlet.</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11193,7 +11193,7 @@
         <v>Grace Jones trat in "Im Angesicht des Todes" auf.</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="772">
@@ -11207,7 +11207,7 @@
         <v>Dennis Hopper war ein Australier.</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11221,7 +11221,7 @@
         <v>Liebe &amp; Freundschaft ist eine Werbung.</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11235,7 +11235,7 @@
         <v>Spanien ist ein Land.</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11249,7 +11249,7 @@
         <v>Tony Goldwyn ist ein deutscher Produzent.</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11263,7 +11263,7 @@
         <v>Roman Reigns ist ein professioneller Baseballspieler.</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11277,7 +11277,7 @@
         <v>Wladimir Putin war von 1997 bis 2008 Präsident.</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11291,7 +11291,7 @@
         <v>Seattle ist die größte Stadt im Bundesstaat Washington.</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11305,7 +11305,7 @@
         <v>Andy Kaufman war ein Wilder.</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="780">
@@ -11319,7 +11319,7 @@
         <v>Danny Carey hat keinen zweiten Vornamen.</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11333,7 +11333,7 @@
         <v>Tiger Woods gewann das Palm Springs Invitational.</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="782">
@@ -11347,7 +11347,7 @@
         <v>Die BRIT School wurde 1922 gegründet.</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11361,7 +11361,7 @@
         <v>John Wayne Gacy Jr. war in Verbrechen verwickelt.</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11375,7 +11375,7 @@
         <v>Der Kommandeur der Schutzstaffel war Heinrich Himmler.</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="785">
@@ -11389,7 +11389,7 @@
         <v>Fergie hat einen Hund namens "Outspoken".</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="786">
@@ -11403,7 +11403,7 @@
         <v>Joey Graceffa arbeitete mit einer Website mit Sitz in San Burno, Kalifornien.</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="787">
@@ -11417,7 +11417,7 @@
         <v>The Leftovers zeigt einen Schauspieler.</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="788">
@@ -11431,7 +11431,7 @@
         <v>Carmelo Anthony spielt für eine Fußballmannschaft.</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11445,7 +11445,7 @@
         <v>Tom Felton ist ein Zwilling.</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="790">
@@ -11459,7 +11459,7 @@
         <v>Die letzte Staffel von Glee wurde am 19. April 2013 bestellt.</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="791">
@@ -11473,7 +11473,7 @@
         <v>Glee war ein Film.</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11487,7 +11487,7 @@
         <v>Alle Gesetze bezüglich des Rechts der Menschen auf das Sorgerecht für Kinder verlangen, dass die Eltern verheiratet sind.</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">
@@ -11501,7 +11501,7 @@
         <v>Ein Prozess hatte Zeugen auf der Anklagebank.</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="794">
@@ -11515,7 +11515,7 @@
         <v>Dexter lachte über die Idee von "Ich habe einen Traum"-Eiscreme.</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11529,7 +11529,7 @@
         <v>Fish gab zu, dass er möglicherweise falsch lag.</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="796">
@@ -11543,7 +11543,7 @@
         <v>Nicht, dass ich den Teufelsadvokaten spielen möchte, aber Mussolini war die Hauptinspiration für Tudjman, seit er ein junger Politiker war.</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11557,7 +11557,7 @@
         <v>Falwell-Stil-Christen glauben, dass Christus jüdisch war.</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11571,7 +11571,7 @@
         <v>Sie sagen, seine Informationen seien nicht der Rede wert.</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="799">
@@ -11585,7 +11585,7 @@
         <v>Richey und der Arzt bestritten während des Prozesses, gegen Wynette irgendwelche rechtswidrigen Handlungen begangen zu haben.</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11599,7 +11599,7 @@
         <v>Der Leser las das Buch bis zum Ende.</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11613,7 +11613,7 @@
         <v>Mehrere verurteilte Verbrecher werden erlaubt, eng mit dem unbewachten Präsidenten und Interessengruppen zu interagieren.</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="802">
@@ -11627,7 +11627,7 @@
         <v>Der New Yorker hat die Kolumne "Briefe aus Europa" eingestellt.</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="803">
@@ -11641,7 +11641,7 @@
         <v>Mein Name könnte möglicherweise Pierre LeCluck sein.</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11655,7 +11655,7 @@
         <v>Flipperautomaten könnten zum Glücksspiel verwendet werden.</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>Ein Verbrechen, das mit einer Bombe begangen wurde, wird wie jedes andere Verbrechen verfolgt.</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="806">
@@ -11683,7 +11683,7 @@
         <v>New Hampshire und Iowa verändern oft die Gedanken.</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>Es gibt gerade einen Genie, der uns dabei helfen kann.</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11711,7 +11711,7 @@
         <v>Keine Frage, es gibt Leben auf anderen Planeten.</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="809">
@@ -11725,7 +11725,7 @@
         <v>Dorthey Healyey kannte Morris.</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11739,7 +11739,7 @@
         <v>Es ist falsch, sich auf diese Position zu berufen.</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">
@@ -11753,7 +11753,7 @@
         <v>Lobbyisten und große Spender haben leichteren Zugang zu Senatoren.</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="812">
@@ -11767,7 +11767,7 @@
         <v>Tatsächlich gab es 1992 mehr Nationen, die hätten teilnehmen können,</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="813">
@@ -11781,7 +11781,7 @@
         <v>Jemand hat Kenneth Starr wahrscheinlich ein Band von dieser Woche’s This Week zugeschoben.</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11795,7 +11795,7 @@
         <v>Reebok gab der She absichtlich einen provokativen Namen.</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="815">
@@ -11809,7 +11809,7 @@
         <v>Das adoptierte Kind mobbt alle auf dem Spielplatz.</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="816">
@@ -11823,7 +11823,7 @@
         <v>Katastrophale Abschaltungen von Stromnetzen, Banken, Flugverkehrscomputern, medizinischen Geräten und ähnlichem werden nun für Jahre vermieden.</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11837,7 +11837,7 @@
         <v>Die Hypothesen, von denen Lang glaubt, dass sie größtenteils bestätigt sind, sind falsch.</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>Heute behauptete ein Spion, dass nach dem Wissen des toten Mannes, als er von einem Briefeschreiber interviewt wurde, die US-Behörden möglicherweise die Ermordung Diems genehmigt hätten.</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11865,7 +11865,7 @@
         <v>Republikaner vermeiden es, den Präsidenten zu kritisieren, weil er aus ihrer Partei stammt.</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11879,7 +11879,7 @@
         <v>Man konnte den Schmerz förmlich auf seinem Gesicht ablesen, und er sah elend aus.</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="821">
@@ -11893,7 +11893,7 @@
         <v>Sie hatte ein Geheimnis vor ihnen.</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11907,7 +11907,7 @@
         <v>Es war schwierig zu sagen, ob sie am richtigen Ort waren.</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="823">
@@ -11921,7 +11921,7 @@
         <v>Die Freunde der Deregulierung haben in vergangenen Jubiläen viele Geschenke erhalten.</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="824">
@@ -11935,7 +11935,7 @@
         <v>Amman war ein kostspieliger Misserfolg.</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="825">
@@ -11949,7 +11949,7 @@
         <v>Arbeitgeber sollten Eier an Aktionäre verkaufen.</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11963,7 +11963,7 @@
         <v>College-Studenten könnten es weniger interessieren, was Sweatshops betrifft.</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>Es ist möglich, dass der Kongress zu viel ausgibt.</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -11991,7 +11991,7 @@
         <v>Jess Gupta könnte schwul sein.</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12005,7 +12005,7 @@
         <v>Henry mochte es, ein Mädchen vor Freude quieken zu lassen, indem er ihr Dinge schenkte, die sie mag.</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="830">
@@ -12019,7 +12019,7 @@
         <v>Die Mormonen praktizierten Polygamie.</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12033,7 +12033,7 @@
         <v>Investoren sollten ihr Geld aus Microsoft abziehen aufgrund der negativen Informationen.</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="832">
@@ -12047,7 +12047,7 @@
         <v>Sie dachten, er sollte mehr Zeit online verbringen.</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>Ein Autounfall mit schwerwiegenden Folgen könnte ein Grund dafür gewesen sein, dass Joe nicht in den Kongress gewählt wurde.</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="834">
@@ -12075,7 +12075,7 @@
         <v>Die Person denkt nicht über ihre Entscheidungen nach.</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="835">
@@ -12089,7 +12089,7 @@
         <v>Der Autor hat "Der Kaufmann von Venedig" gesehen.</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="836">
@@ -12103,7 +12103,7 @@
         <v>Das Produkt sollte in den Sommermonaten Juni, Juli und August in den Geschäften erhältlich sein.</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="837">
@@ -12117,7 +12117,7 @@
         <v>Die Gesellschaft könnte eines Tages zusammenbrechen.</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="838">
@@ -12131,7 +12131,7 @@
         <v>Es ist wahrscheinlich, dass der Autor lange vor dem Tod eine tödliche Krankheit bekommt.</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="839">
@@ -12145,7 +12145,7 @@
         <v>Wir haben Zugang zu urheberrechtlich geschütztem Material.</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>Sie könnten alle Sklaven gewesen sein.</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>Die Vereinigten Staaten und Russland befinden sich gemeinsam im Krieg.</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12187,7 +12187,7 @@
         <v>Der Beitritt zur NATO bietet wenig zusätzlichen Schutz.</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12201,7 +12201,7 @@
         <v>Aktienoptionen sind für den Verbraucher selten legitim.</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="844">
@@ -12215,7 +12215,7 @@
         <v>Das Programm wird erweitert, um die Polizei einzubeziehen.</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="845">
@@ -12229,7 +12229,7 @@
         <v>Er urteilt nicht zu hart über Menschen, die andere religiöse Vorstellungen haben als er selbst.</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12243,7 +12243,7 @@
         <v>Sie haben Möglichkeiten, aus der Zwickmühle herauszukommen.</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12257,7 +12257,7 @@
         <v>Sie hat sich bereits verändert.</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12271,7 +12271,7 @@
         <v>Die großen Kredite würden den Unterschied ausmachen.</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="849">
@@ -12285,7 +12285,7 @@
         <v>Apple erteilte einigen Unternehmen, wie IBM und HP, die Erlaubnis, Hardware zu produzieren, die mit ihrem Betriebssystem läuft.</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12299,7 +12299,7 @@
         <v>Es könnte möglich sein, Menschen zu bitten zu gehen, ohne familiäre Probleme zu haben.</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="851">
@@ -12313,7 +12313,7 @@
         <v>Intelligenz hat viele Erklärungen und Möglichkeiten, einschließlich seltsamer.</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="852">
@@ -12327,7 +12327,7 @@
         <v>Irakische Kommandoeinheiten könnten Schwierigkeiten haben, Berichte der Nachrichtenmedien zu entkommen.</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="853">
@@ -12341,7 +12341,7 @@
         <v>Hochrangige Mitarbeiter eines Schuhunternehmens werden nicht untersucht.</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="854">
@@ -12355,7 +12355,7 @@
         <v>Tripp ritt tatsächlich auf einem Drachen, aber die Medien ignorierten das und konzentrierten sich stattdessen auf ihr Zeugnis vor Gericht.</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="855">
@@ -12369,7 +12369,7 @@
         <v>Niemand ist sich sicher, wann Bergman entschied, dass Wigand nicht wichtig war.</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="856">
@@ -12383,7 +12383,7 @@
         <v>Das Buch endet mit dem Argument</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="857">
@@ -12397,7 +12397,7 @@
         <v>Es ist unerlässlich, dass gemeinnützige Anbieter von humanitären Dienstleistungen ausländische Praktiken und Denkweisen nutzen, um erfolgreich zu arbeiten.</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12411,7 +12411,7 @@
         <v>Die angesammelten Vielfliegermeilen können gegen einen Geldwert eingelöst werden.</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12425,7 +12425,7 @@
         <v>Er wird höchstwahrscheinlich getradet werden.</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="860">
@@ -12439,7 +12439,7 @@
         <v>Bestimmte Arten von vorgeschlagenen Service-Innovationen sollten von der USPS in Betracht gezogen werden.</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="861">
@@ -12453,7 +12453,7 @@
         <v>Microsoft hat sich in fragwürdiges Verhalten verwickelt und wird untersucht.</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>Bill Bradley und Al Gore sind die einzigen anderen, die neben den Demokraten in Arizona von Wahlbetrug durch Net Abstimmungen betroffen sind.</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12481,7 +12481,7 @@
         <v>Aktienoptionen sind eine gute Idee.</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="864">
@@ -12495,7 +12495,7 @@
         <v>Niemand ist sich sicher, was ein Bravourstück ist, aber die Ärzte sind optimistisch, dass es entfernt werden kann.</v>
       </c>
       <c r="D864" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="865">
@@ -12509,7 +12509,7 @@
         <v>A sieht aus wie ein Landgasthof mit einem Pflasterstein-Hof.</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="866">
@@ -12523,7 +12523,7 @@
         <v>Die Nationalakademie der Wissenschaften berichtete über Forschungsschwerpunkte für PM.</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12537,7 +12537,7 @@
         <v>Es ist nicht ungewöhnlich, dass Touristenführer sich in die offizielle Residenz der portugiesischen Regierung schleichen.</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>Griechenland könnte die Inseln im Norden und Osten Italiens aufnehmen und nutzte diese Gelegenheit.</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="869">
@@ -12565,7 +12565,7 @@
         <v>Die strengen Zeitvorgaben für die Umstellung zum Jahr 2000 sollten keinerlei Auswirkungen auf die Vertraulichkeit sensibler Daten haben.</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="870">
@@ -12579,7 +12579,7 @@
         <v>Er sprach nur privat über den Präsidenten.</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="871">
@@ -12593,7 +12593,7 @@
         <v>Du bist der wahre Franklin, egal wie ich gekleidet bin.</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="872">
@@ -12607,7 +12607,7 @@
         <v>Die Bäume sahen wunderbar aus.</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="873">
@@ -12621,7 +12621,7 @@
         <v>Die Republikaner waren früher daran interessiert, Gingrich im Amt zu halten.</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="874">
@@ -12635,7 +12635,7 @@
         <v>Jemand muss wissen, wo es ist.</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12663,7 +12663,7 @@
         <v>Wie viele Portionen ergibt das?</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12677,7 +12677,7 @@
         <v>Sie haben kein Wissen über den Modegeschmack.</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="878">
@@ -12691,7 +12691,7 @@
         <v>Drew kannte Don Quijote.</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12705,7 +12705,7 @@
         <v>Die Unterstützer der NASA haben immer behauptet, dass es ein Finanzierungsproblem war.</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12719,7 +12719,7 @@
         <v>Drew nahm ein Angebot für das Pferd an.</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="881">
@@ -12733,7 +12733,7 @@
         <v>Du solltest.</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="882">
@@ -12747,7 +12747,7 @@
         <v>sie könnten sehr gut sein</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="883">
@@ -12761,7 +12761,7 @@
         <v>Es ist gut, etwas mehr zu haben, da es möglicherweise nicht gewählt wird.</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="884">
@@ -12775,7 +12775,7 @@
         <v>Es wird geschätzt, dass der Prozess Scheck zwischen 100.000 und 300.000 Dollar kosten wird, was sie sich leicht leisten kann.</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12789,7 +12789,7 @@
         <v>San'doro hob Jon hoch, damit er stehen konnte.</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="886">
@@ -12803,7 +12803,7 @@
         <v>Man fragt sich, ob seine Geschichte als Zirkusclown seine Fotografie beeinflusst hat.</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12817,7 +12817,7 @@
         <v>Die Entscheidung wird festlegen, ob sich diese Schätzungen ändern können oder nicht.</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12831,7 +12831,7 @@
         <v>Die herrschende Elite diktiert die nationale Wirtschaft.</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="889">
@@ -12845,7 +12845,7 @@
         <v>Es war sehr verdächtig, dass sie am Tag ihres Todes ein neues Testament gemacht hat.</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12859,7 +12859,7 @@
         <v>Der Auftragnehmer sollte einbezogen werden.</v>
       </c>
       <c r="D890" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="891">
@@ -12873,7 +12873,7 @@
         <v>Eine Person kann zwischen zwei Angeboten keine Präferenz haben.</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12887,7 +12887,7 @@
         <v>Die neue Emissionsregel wurde im Mai 1996 veröffentlicht.</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="893">
@@ -12901,7 +12901,7 @@
         <v>Es könnte am Ende keine Demokratie werden.</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>Der Wert ist groß und es muss eine Art Fehler vorliegen.</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>Du musst im Krieg gestorben sein.</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12943,7 +12943,7 @@
         <v>Der Autor ist froh, dass die Idee nicht verwirklicht wurde.</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12957,7 +12957,7 @@
         <v>Fortgeschrittene Intake-Systeme müssen installiert werden, um mehr Kunden zu unterstützen.</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="898">
@@ -12971,7 +12971,7 @@
         <v>Die bundesstaatliche Finanzpolitik kann die nationale Ersparnis auf viele Arten beeinflussen.</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>Die Bananencremetorte war die beste und kann mit nach Hause genommen werden.</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -12999,7 +12999,7 @@
         <v>Man konnte Albert auf dem Boden darüber gehen hören.</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="901">
@@ -13013,7 +13013,7 @@
         <v>Das Kerzenlicht ließ den Mann noch robuster erscheinen.</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -5061,7 +5061,7 @@
         <v>Sein Büro hat seit vielen Jahren als Aufsichtsbehörde für die verschiedenen Datenschutzrichtlinien fungiert.</v>
       </c>
       <c r="D333" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="334">
@@ -13027,7 +13027,7 @@
         <v>Die Übereinstimmung liegt innerhalb der NAFTA-Vorschriften.</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13041,7 +13041,7 @@
         <v>Der beste Weg, eine E-Mail-Marketingkampagne durchzuführen, ist einfach, es spontan zu machen. Erstellen Sie eine Liste von Kunden. Die Leute zu belästigen, ist eine großartige Möglichkeit, eine Anhängerschaft zu gewinnen. E-Mail-Marketing entstand in den achtziger Jahren.</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="904">
@@ -13055,7 +13055,7 @@
         <v>Es gibt keine Mitglieder aus New York.</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13069,7 +13069,7 @@
         <v>Der Welpe war dafür, ein Jahr älter zu sein.</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="906">
@@ -13083,7 +13083,7 @@
         <v>Der YouTube-Nutzer Streetcap1 hat eine Reihe von Bildern veröffentlicht, die vom chinesischen Mondrover Chang'e 4 aufgenommen wurden.</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="907">
@@ -13097,7 +13097,7 @@
         <v>Der Zustand der Ablenkung kann durch die visuellen Sinne wahrgenommen werden.</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13111,7 +13111,7 @@
         <v>Die Rye St Antony Schule erlaubt keine 9-jährigen Jungen.</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">
@@ -13125,7 +13125,7 @@
         <v>Der Gouverneur hat doppelt so viel Nationenaufbau vorgeschlagen.</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="910">
@@ -13139,7 +13139,7 @@
         <v>Es sind mindestens weniger als zehn Menschen getötet worden.</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="911">
@@ -13153,7 +13153,7 @@
         <v>Die Herbstfarbe hängt nicht von Niederschlägen ab.</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="912">
@@ -13167,7 +13167,7 @@
         <v>Jusuf Kalla ist nicht der Präsident der Philippinen.</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13181,7 +13181,7 @@
         <v>Gemeinschaftszonen berücksichtigen das städtische Design.</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="914">
@@ -13195,7 +13195,7 @@
         <v>Von Madison aus dauert es weniger als 5 Stunden zu fahren.</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="915">
@@ -13209,7 +13209,7 @@
         <v>Hell Blade hat höher eingestuft als Time's End.</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13223,7 +13223,7 @@
         <v>Der Arzt ging gerade spazieren, als all dies geschah.</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="917">
@@ -13237,7 +13237,7 @@
         <v>Chuck Wright war einer von vielen Hintergrundsängern für Quiet Riot.</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="918">
@@ -13251,7 +13251,7 @@
         <v>Der zentrale Saal kann nicht mehr als 10.014 Personen für Basketballspiele fassen.</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13265,7 +13265,7 @@
         <v>Einige Verfassungsrechtler würden befragt werden.</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13279,7 +13279,7 @@
         <v>Schwaches Pappe ist besser als stabiles.</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="921">
@@ -13293,7 +13293,7 @@
         <v>Einige medizinische Werte sind hoch.</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13307,7 +13307,7 @@
         <v>Eric fand, dass Neil in Arbeitskleidung besser aussah als in Anzugkleidung.</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13321,7 +13321,7 @@
         <v>Unter dem Präsidenten gehen in Amerika Arbeitsplätze verloren.</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13335,7 +13335,7 @@
         <v>Wirtschaftswachstum ist der wichtigste Schwerpunkt für den Oberbefehlshaber des Landes der Freien und der Heimat der Tapferen.</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="925">
@@ -13349,7 +13349,7 @@
         <v>"Wo eine eidesstattliche Erklärung bereitgestellt wird" ist sehr spezifische Sprache.</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13363,7 +13363,7 @@
         <v>Herr Wiesel ist eine fiktive Figur.</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="927">
@@ -13377,7 +13377,7 @@
         <v>Die Männer wurden aus einem Gebäude heraus beschossen, an dem sie vorbeigingen.</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13391,7 +13391,7 @@
         <v>Der Mann starb nicht am Tatort.</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13405,7 +13405,7 @@
         <v>Ein langsames Atemmuster besteht darin, zweimal einzuatmen und von einem Urlaub zu träumen.</v>
       </c>
       <c r="D929" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="930">
@@ -13419,7 +13419,7 @@
         <v>Der Präsident glaubt an starke Beziehungen zu Europa.</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="931">
@@ -13433,7 +13433,7 @@
         <v>All for Love wurde von weniger als vier Personen geschrieben.</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13447,7 +13447,7 @@
         <v>Von Madison aus dauert es weniger als 6 Stunden zu fahren.</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13461,7 +13461,7 @@
         <v>Brücken-Grammatik ist nicht kleiner als Insel-Grammatik.</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="934">
@@ -13475,7 +13475,7 @@
         <v>Diese Show heißt nicht mehr "Jack Horkheimer: Star Hustler".</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="935">
@@ -13489,7 +13489,7 @@
         <v>Kaugummi ist besser zum Blasen von Blasen.</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="936">
@@ -13503,7 +13503,7 @@
         <v>Dieser Redner hat an vielen königlichen Zustimmungen teilgenommen.</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13517,7 +13517,7 @@
         <v>Seit einem Jahr führt die kanadische Regierung geheime Verhandlungen.</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13531,7 +13531,7 @@
         <v>Gore wird als Gouverneur angesprochen.</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13545,7 +13545,7 @@
         <v>Streetcap1 war auf dem Mond, als er Fotos vom chinesischen Mondrover Chang'e 3 postete.</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="940">
@@ -13559,7 +13559,7 @@
         <v>Change’e 3 hat keine Clips auf YouTube gepostet.</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="941">
@@ -13573,7 +13573,7 @@
         <v>Trends kommen zurück.</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13587,7 +13587,7 @@
         <v>In den Gedanken des Landwirts gab es Bürgersteige.</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13601,7 +13601,7 @@
         <v>Während Zdeno Chara der größte NHL-Spieler ist, gehört Mike Cvik nicht zu den größeren Spielern.</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="944">
@@ -13615,7 +13615,7 @@
         <v>Holding Back the River erreichte in den Charts eine höhere Platzierung als das Debütalbum der Band.</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="945">
@@ -13629,7 +13629,7 @@
         <v>Gordon hat in einem anderen Spiel dieser Saison mehr als einmal getroffen.</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="946">
@@ -13643,7 +13643,7 @@
         <v>Beat TV wurde mehr als zwei Stunden am Stück ausgestrahlt.</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13657,7 +13657,7 @@
         <v>Es gibt mehr als 10 Schulen in der Big 12 Conference.</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13671,7 +13671,7 @@
         <v>Das Kelvingrove Museum in Glasgow war in Indien.</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="949">
@@ -13685,7 +13685,7 @@
         <v>Annet Artani hat nicht alle ihre Songs selbst geschrieben.</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="950">
@@ -13699,7 +13699,7 @@
         <v>Amy und Anna trafen sich wieder, nachdem sie sich zufällig im Café getroffen hatten.</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="951">
@@ -13713,7 +13713,7 @@
         <v>Der Bob Adams Field liegt fünfundzwanzig Meilen östlich des Yampa Valley Regional Airport.</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">
@@ -13727,7 +13727,7 @@
         <v>Nicht jeder verdient Medicare.</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="953">
@@ -13741,7 +13741,7 @@
         <v>Neil Gordon ist kein modischer Mensch.</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="954">
@@ -13755,7 +13755,7 @@
         <v>Die Aussage enthält weniger als etwa 28 Wörter.</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="955">
@@ -13769,7 +13769,7 @@
         <v>Jeder sprach für Zeitspannen von bis zu 5 Minuten bis zur nächsten Person.</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="956">
@@ -13783,7 +13783,7 @@
         <v>Nancy Hart Douglas war kein Spion unter General Stonewall Jackson.</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13797,7 +13797,7 @@
         <v>Thailand und Kambodscha können sich nicht auf das Eigentum eines Tempels einigen.</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13811,7 +13811,7 @@
         <v>Mehr als drei Wochen nach Pamelas Mord befand sich Lois Riess in Polizeigewahrsam.</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="959">
@@ -13825,7 +13825,7 @@
         <v>Natriumsaccharin hat ein o</v>
       </c>
       <c r="D959" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="960">
@@ -13839,7 +13839,7 @@
         <v>Jensen Ackles ist nicht bekannt für seine Rollen im Fernsehen als Jason Teague in Smallville.</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="961">
@@ -13853,7 +13853,7 @@
         <v>"Die Ungeheuerlichkeit der Familie" wurde von einer Katze inszeniert.</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="962">
@@ -13867,7 +13867,7 @@
         <v>Die Coen-Brüder inszenierten einen Thrillerfilm.</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13881,7 +13881,7 @@
         <v>Muhammad war ein Prophet.</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13895,7 +13895,7 @@
         <v>Venus Williams spielt Einzel im Tennis.</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13909,7 +13909,7 @@
         <v>Brittany Murphy spielte in einem Film.</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13923,7 +13923,7 @@
         <v>Bermuda wurde 1609 kolonisiert.</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13937,7 +13937,7 @@
         <v>Harry Styles und seine Bandkollegen veröffentlichten das Folk-Album Midnight Memories.</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="968">
@@ -13951,7 +13951,7 @@
         <v>Fantastische Tierwesen und wo sie zu finden sind ist ein Naturbuch.</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13965,7 +13965,7 @@
         <v>Mirka Federer ist eine Tennisspielerin, die professionell gespielt hat und nicht mehr spielt.</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -13979,7 +13979,7 @@
         <v>Der Geburtsname von Big Show ist Paul Donald Wight II, obwohl er für das professionelle Wrestling Big Show verwendet.</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13993,7 +13993,7 @@
         <v>Leslie Uggams trat in einem von Tim Miller inszenierten Film auf.</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14007,7 +14007,7 @@
         <v>Venus Williams spielt Einzel im Tennis.</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14021,7 +14021,7 @@
         <v>Drew Barrymore spielte in einem Film.</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14035,7 +14035,7 @@
         <v>Toy Story basierte nicht auf zuvor veröffentlichtem Material, was es ermöglichte, für das beste Originaldrehbuch nominiert zu werden.</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="975">
@@ -14049,7 +14049,7 @@
         <v>Malala Yousafzai ist eine Befürworterin des Rechts von Frauen auf Bildung.</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="976">
@@ -14063,7 +14063,7 @@
         <v>Pi ist eine Zahl.</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14077,7 +14077,7 @@
         <v>Ein hoher Prozentsatz der Menschen in Aserbaidschan ist alphabetisiert.</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14091,7 +14091,7 @@
         <v>Italien hat einen längeren offiziellen Titel.</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14105,7 +14105,7 @@
         <v>Matt Groening gewann Primetime Emmys für Die Simpsons.</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14119,7 +14119,7 @@
         <v>Muhammad ist für die Religion von Bedeutung.</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14133,7 +14133,7 @@
         <v>John McEnroe war ein Tennisspieler.</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14147,7 +14147,7 @@
         <v>Black Mirror ist ein Rennpferd.</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14161,7 +14161,7 @@
         <v>Catching Fire ist ein Genre.</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="984">
@@ -14175,7 +14175,7 @@
         <v>John McCain wurde 1989 im Rahmen der Keating Five der Korruption beschuldigt.</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985">
@@ -14189,7 +14189,7 @@
         <v>Valerian – Die Stadt der tausend Planeten zeigt einen Schauspieler.</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14203,7 +14203,7 @@
         <v>Venus Williams spielt Einzel im Tennis.</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14217,7 +14217,7 @@
         <v>Margarete von Valois hatte Schwestern.</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="988">
@@ -14231,7 +14231,7 @@
         <v>Matt Groening gewann zehn italienische Beef-Sandwiches für Die Simpsons.</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="989">
@@ -14245,7 +14245,7 @@
         <v>Die Nashville Songwriters Association International bietet eine Ausbildung in der Musikindustrie an.</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14259,7 +14259,7 @@
         <v>Batman Begins kam vor der Unabhängigkeit Nordamerikas heraus.</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14273,7 +14273,7 @@
         <v>Toy Story basierte nicht auf zuvor veröffentlichtem Material, was es ermöglichte, für das beste Originaldrehbuch nominiert zu werden.</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14287,7 +14287,7 @@
         <v>Billy Joel ist in der darstellenden Kunstbranche tätig.</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="993">
@@ -14301,7 +14301,7 @@
         <v>Die Tribute von Panem – Gefährliche Liebe wurde als Taschenbuch veröffentlicht.</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="994">
@@ -14315,7 +14315,7 @@
         <v>Brittany Murphy hat schauspielerisch gewirkt.</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14329,7 +14329,7 @@
         <v>Foo Fighters machen Musik.</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14343,7 +14343,7 @@
         <v>Die Boeing 777 ist das Flugzeug mit der größten Reichweite der Welt.</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14357,7 +14357,7 @@
         <v>Muhammad ist für die Religion von Bedeutung.</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14371,7 +14371,7 @@
         <v>Transformers: Die Rache der Gefallenen ist ein Film.</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="999">
@@ -14385,7 +14385,7 @@
         <v>Der Bühnenname von Big Show ist Paul Donald Wight II.</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14399,7 +14399,7 @@
         <v>Muhammad ist für die Religion von Bedeutung.</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14413,7 +14413,7 @@
         <v>Joaquin Phoenix hat Filme inszeniert.</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
   </sheetData>

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -4781,7 +4781,7 @@
         <v>Mark Cavendish hat sich aus der Tour de France zurückgezogen.</v>
       </c>
       <c r="D313" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -5327,7 +5327,7 @@
         <v>Er hat Filme wie "Hank und die Suche nach dem Glück", "Serendipity" und "Shall We Dance?" inszeniert.</v>
       </c>
       <c r="D352" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="353">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -5537,7 +5537,7 @@
         <v>Der Islamische Dschihad fordert die Freilassung seines Anführers und die Aufhebung des Embargos gegen den Iran.</v>
       </c>
       <c r="D367" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="368">
@@ -5747,7 +5747,7 @@
         <v>Ein anonymer Text offenbart deinen Namen nicht.</v>
       </c>
       <c r="D382" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="383">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -6839,7 +6839,7 @@
         <v>Der Anblick dessen, was die Dosen enthielten, ließ ihn erbrechen.</v>
       </c>
       <c r="D460" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -8085,7 +8085,7 @@
         <v>Es ist eine gute Idee, den Schulrat um Hilfe zu bitten.</v>
       </c>
       <c r="D549" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="550">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -8309,7 +8309,7 @@
         <v>Die Veränderung ihrer Stimmung war auf ihre Freunde zurückzuführen.</v>
       </c>
       <c r="D565" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="566">
@@ -8435,7 +8435,7 @@
         <v>Polizeigewalt ist notwendig, um die Gesetze durchzusetzen.</v>
       </c>
       <c r="D574" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="575">
@@ -10213,7 +10213,7 @@
         <v>X-Men: Zukunft ist Vergangenheit kam nach 2010 heraus.</v>
       </c>
       <c r="D701" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">

--- a/Annotations/annotations_DE.xlsx
+++ b/Annotations/annotations_DE.xlsx
@@ -10885,7 +10885,7 @@
         <v>Miranda Kerr war ein kanadisches Victoria's Secret Model.</v>
       </c>
       <c r="D749" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -11851,7 +11851,7 @@
         <v>Heute behauptete ein Spion, dass nach dem Wissen des toten Mannes, als er von einem Briefeschreiber interviewt wurde, die US-Behörden möglicherweise die Ermordung Diems genehmigt hätten.</v>
       </c>
       <c r="D818" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="819">
@@ -12215,7 +12215,7 @@
         <v>Das Programm wird erweitert, um die Polizei einzubeziehen.</v>
       </c>
       <c r="D844" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="845">
@@ -13629,7 +13629,7 @@
         <v>Gordon hat in einem anderen Spiel dieser Saison mehr als einmal getroffen.</v>
       </c>
       <c r="D945" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
